--- a/medicine/Soins infirmiers et profession infirmière/Échelle_de_Braden/Échelle_de_Braden.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Échelle_de_Braden/Échelle_de_Braden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_Braden</t>
+          <t>Échelle_de_Braden</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'échelle de Braden est une échelle d'évaluation du risque d'escarre, créé en 1987 par Barbara Braden et Nancy Bergstrom aux U.S.A[1]. Cette échelle est beaucoup utilisée aux USA, son intérêt réside dans sa simplicité et sa validation dans de nombreuses études internationales[2],[3],[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'échelle de Braden est une échelle d'évaluation du risque d'escarre, créé en 1987 par Barbara Braden et Nancy Bergstrom aux U.S.A. Cette échelle est beaucoup utilisée aux USA, son intérêt réside dans sa simplicité et sa validation dans de nombreuses études internationales.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_Braden</t>
+          <t>Échelle_de_Braden</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,38 +523,12 @@
           <t>Facteurs pris en compte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette échelle permet à l'équipe soignante d'évaluer le risque que le patient développe une escarre et facilite la communication entre les différents acteurs du soin. Un certain nombre de points est attribué à différents facteurs intrinsèques ou extrinsèques (le nombre de points attribué aux différents facteurs peut varier légèrement) :
-La sensibilité
-complètement limitée = 1
-très limitée = 2
-légèrement limitée = 3
-pas de gêne = 4
-La mobilité
-totalement immobile = 1
-très limitée = 2
-légèrement limitée = 3
-pas de limitation = 4
-L'humidité
-constamment humide = 1
-très humide = 2
-parfois humide = 3
-rarement humide = 4
-La nutrition
-très pauvre = 1
-probablement inadéquate = 2
-correcte = 3
-excellente = 4
-L'activité
-confiné au lit = 1
-confiné en chaise = 2
-marche parfois = 3
-marche fréquemment = 4
-Les frictions et frottements
-problème permanent = 1
-problème potentiel = 2
-pas de problème apparent = 3</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette échelle permet à l'équipe soignante d'évaluer le risque que le patient développe une escarre et facilite la communication entre les différents acteurs du soin. Un certain nombre de points est attribué à différents facteurs intrinsèques ou extrinsèques (le nombre de points attribué aux différents facteurs peut varier légèrement) :
+</t>
         </is>
       </c>
     </row>
@@ -552,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_Braden</t>
+          <t>Échelle_de_Braden</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,10 +553,245 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Facteurs pris en compte</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La sensibilité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>complètement limitée = 1
+très limitée = 2
+légèrement limitée = 3
+pas de gêne = 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Échelle_de_Braden</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Braden</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Facteurs pris en compte</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La mobilité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>totalement immobile = 1
+très limitée = 2
+légèrement limitée = 3
+pas de limitation = 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Échelle_de_Braden</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Braden</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Facteurs pris en compte</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L'humidité</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>constamment humide = 1
+très humide = 2
+parfois humide = 3
+rarement humide = 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Échelle_de_Braden</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Braden</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Facteurs pris en compte</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La nutrition</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>très pauvre = 1
+probablement inadéquate = 2
+correcte = 3
+excellente = 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Échelle_de_Braden</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Braden</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Facteurs pris en compte</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>L'activité</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>confiné au lit = 1
+confiné en chaise = 2
+marche parfois = 3
+marche fréquemment = 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Échelle_de_Braden</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Braden</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Facteurs pris en compte</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les frictions et frottements</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>problème permanent = 1
+problème potentiel = 2
+pas de problème apparent = 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Échelle_de_Braden</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Braden</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Résultat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Plus le résultat est faible, plus le risque d'escarre est élevé. Au-dessus de 18, le risque est faible.
 Risque très élevé : 7 ou moins
